--- a/templates/recommended_cars.xlsx
+++ b/templates/recommended_cars.xlsx
@@ -58,34 +58,34 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Ford Fiesta 1.6 ZXi Leather</t>
-  </si>
-  <si>
-    <t>Ford Ecosport Signature Edition Diesel</t>
-  </si>
-  <si>
-    <t>Ford Endeavour 2.2 Trend MT 4X4</t>
-  </si>
-  <si>
-    <t>Ford Fiesta Classic 1.4 Duratorq CLXI</t>
-  </si>
-  <si>
-    <t>Ford Figo Petrol ZXI</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Pune</t>
+    <t>Maruti Wagon R LXI</t>
+  </si>
+  <si>
+    <t>Maruti Swift ZDi</t>
+  </si>
+  <si>
+    <t>Maruti SX4 ZXI MT BSIV</t>
+  </si>
+  <si>
+    <t>Maruti Swift Dzire VDI</t>
+  </si>
+  <si>
+    <t>Maruti Ciaz ZXi</t>
+  </si>
+  <si>
+    <t>Maruti</t>
+  </si>
+  <si>
+    <t>Kochi</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
   </si>
   <si>
     <t>Petrol</t>
@@ -97,10 +97,10 @@
     <t>Manual</t>
   </si>
   <si>
+    <t>First</t>
+  </si>
+  <si>
     <t>Second</t>
-  </si>
-  <si>
-    <t>First</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>3796</v>
+        <v>3828</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="F2">
-        <v>94873</v>
+        <v>50230</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -537,24 +537,24 @@
         <v>27</v>
       </c>
       <c r="J2">
-        <v>1596</v>
+        <v>998</v>
       </c>
       <c r="K2">
-        <v>101</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="L2">
         <v>5</v>
       </c>
       <c r="M2">
-        <v>15.3</v>
+        <v>18.9</v>
       </c>
       <c r="N2">
-        <v>1.85</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>5331</v>
+        <v>4268</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -566,10 +566,10 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="F3">
-        <v>13000</v>
+        <v>120000</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -581,24 +581,24 @@
         <v>28</v>
       </c>
       <c r="J3">
-        <v>1498</v>
+        <v>1248</v>
       </c>
       <c r="K3">
-        <v>98.95999999999999</v>
+        <v>74</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="N3">
-        <v>10.9</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>2395</v>
+        <v>4115</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -607,42 +607,42 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="F4">
-        <v>107890</v>
+        <v>79940</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4">
-        <v>2198</v>
+        <v>1586</v>
       </c>
       <c r="K4">
-        <v>157.7</v>
+        <v>103.3</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="N4">
-        <v>20.5</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>4522</v>
+        <v>1415</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -654,10 +654,10 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="F5">
-        <v>143143</v>
+        <v>76128</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -666,27 +666,27 @@
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5">
-        <v>1399</v>
+        <v>1248</v>
       </c>
       <c r="K5">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
       <c r="M5">
-        <v>17.8</v>
+        <v>26.59</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>2020</v>
+        <v>5381</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -698,10 +698,10 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F6">
-        <v>21727</v>
+        <v>48823</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -710,22 +710,22 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J6">
-        <v>1196</v>
+        <v>1373</v>
       </c>
       <c r="K6">
-        <v>70.02</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6">
-        <v>15.6</v>
+        <v>20.73</v>
       </c>
       <c r="N6">
-        <v>3.35</v>
+        <v>6.35</v>
       </c>
     </row>
   </sheetData>

--- a/templates/recommended_cars.xlsx
+++ b/templates/recommended_cars.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -58,43 +58,37 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Maruti Wagon R LXI</t>
-  </si>
-  <si>
-    <t>Maruti Swift ZDi</t>
-  </si>
-  <si>
-    <t>Maruti SX4 ZXI MT BSIV</t>
-  </si>
-  <si>
-    <t>Maruti Swift Dzire VDI</t>
-  </si>
-  <si>
-    <t>Maruti Ciaz ZXi</t>
-  </si>
-  <si>
-    <t>Maruti</t>
+    <t>BMW X5 2014-2019 xDrive 30d Design Pure Experience 7 Seater</t>
+  </si>
+  <si>
+    <t>BMW 3 Series 320d</t>
+  </si>
+  <si>
+    <t>BMW 3 Series 320d Dynamic</t>
+  </si>
+  <si>
+    <t>BMW 3 Series 320d Sport Line</t>
+  </si>
+  <si>
+    <t>BMW X1 sDrive 20d Exclusive</t>
+  </si>
+  <si>
+    <t>BMW</t>
   </si>
   <si>
     <t>Kochi</t>
   </si>
   <si>
-    <t>Jaipur</t>
-  </si>
-  <si>
-    <t>Delhi</t>
+    <t>Hyderabad</t>
   </si>
   <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>Petrol</t>
-  </si>
-  <si>
     <t>Diesel</t>
   </si>
   <si>
-    <t>Manual</t>
+    <t>Automatic</t>
   </si>
   <si>
     <t>First</t>
@@ -510,7 +504,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>3828</v>
+        <v>1397</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -522,39 +516,39 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F2">
-        <v>50230</v>
+        <v>35659</v>
       </c>
       <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>998</v>
+        <v>2993</v>
       </c>
       <c r="K2">
-        <v>67.09999999999999</v>
+        <v>258</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>18.9</v>
+        <v>15.97</v>
       </c>
       <c r="N2">
-        <v>3.87</v>
+        <v>43.78</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>4268</v>
+        <v>2543</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -566,39 +560,39 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F3">
-        <v>120000</v>
+        <v>58000</v>
       </c>
       <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
       <c r="J3">
-        <v>1248</v>
+        <v>1995</v>
       </c>
       <c r="K3">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3">
-        <v>22.9</v>
+        <v>13.2</v>
       </c>
       <c r="N3">
-        <v>3.2</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>4115</v>
+        <v>5097</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -607,42 +601,42 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="F4">
-        <v>79940</v>
+        <v>81308</v>
       </c>
       <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
       <c r="J4">
-        <v>1586</v>
+        <v>1995</v>
       </c>
       <c r="K4">
-        <v>103.3</v>
+        <v>170</v>
       </c>
       <c r="L4">
         <v>5</v>
       </c>
       <c r="M4">
-        <v>15.5</v>
+        <v>13.2</v>
       </c>
       <c r="N4">
-        <v>2.78</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>1415</v>
+        <v>3644</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -651,42 +645,42 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="F5">
-        <v>76128</v>
+        <v>69000</v>
       </c>
       <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
       <c r="J5">
-        <v>1248</v>
+        <v>1995</v>
       </c>
       <c r="K5">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="L5">
         <v>5</v>
       </c>
       <c r="M5">
-        <v>26.59</v>
+        <v>18.88</v>
       </c>
       <c r="N5">
-        <v>5.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>5381</v>
+        <v>2585</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -695,37 +689,37 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2012</v>
+      </c>
+      <c r="F6">
+        <v>65148</v>
+      </c>
+      <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>2015</v>
-      </c>
-      <c r="F6">
-        <v>48823</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
-        <v>26</v>
-      </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6">
-        <v>1373</v>
+        <v>1995</v>
       </c>
       <c r="K6">
-        <v>91.09999999999999</v>
+        <v>177</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6">
-        <v>20.73</v>
+        <v>15.06</v>
       </c>
       <c r="N6">
-        <v>6.35</v>
+        <v>12.75</v>
       </c>
     </row>
   </sheetData>

--- a/templates/recommended_cars.xlsx
+++ b/templates/recommended_cars.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -58,34 +58,40 @@
     <t>Price</t>
   </si>
   <si>
-    <t>BMW X5 2014-2019 xDrive 30d Design Pure Experience 7 Seater</t>
-  </si>
-  <si>
-    <t>BMW 3 Series 320d</t>
-  </si>
-  <si>
-    <t>BMW 3 Series 320d Dynamic</t>
-  </si>
-  <si>
-    <t>BMW 3 Series 320d Sport Line</t>
-  </si>
-  <si>
-    <t>BMW X1 sDrive 20d Exclusive</t>
-  </si>
-  <si>
-    <t>BMW</t>
+    <t>Mahindra Thar DI 4X4</t>
+  </si>
+  <si>
+    <t>Mahindra Bolero VLX BS IV</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W9 AT</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 W8 2WD</t>
+  </si>
+  <si>
+    <t>Mahindra TUV 300 2015-2019 mHAWK100 T8</t>
+  </si>
+  <si>
+    <t>Mahindra</t>
   </si>
   <si>
     <t>Kochi</t>
   </si>
   <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>Delhi</t>
   </si>
   <si>
     <t>Diesel</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
   <si>
     <t>Automatic</t>
@@ -504,7 +510,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>1397</v>
+        <v>3782</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -516,39 +522,39 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="F2">
-        <v>35659</v>
+        <v>13024</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>2993</v>
+        <v>2523</v>
       </c>
       <c r="K2">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c r="L2">
         <v>7</v>
       </c>
       <c r="M2">
-        <v>15.97</v>
+        <v>18.06</v>
       </c>
       <c r="N2">
-        <v>43.78</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
-        <v>2543</v>
+        <v>862</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -560,39 +566,39 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F3">
-        <v>58000</v>
+        <v>99000</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J3">
-        <v>1995</v>
+        <v>2523</v>
       </c>
       <c r="K3">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="N3">
-        <v>19.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
-        <v>5097</v>
+        <v>796</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -604,39 +610,39 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="F4">
-        <v>81308</v>
+        <v>19654</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4">
-        <v>1995</v>
+        <v>2179</v>
       </c>
       <c r="K4">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>13.2</v>
+        <v>14</v>
       </c>
       <c r="N4">
-        <v>7.95</v>
+        <v>17.63</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>3644</v>
+        <v>1493</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -645,42 +651,42 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2012</v>
       </c>
       <c r="F5">
-        <v>69000</v>
+        <v>75000</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>1995</v>
+        <v>2179</v>
       </c>
       <c r="K5">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>18.88</v>
+        <v>15.1</v>
       </c>
       <c r="N5">
-        <v>18.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
-        <v>2585</v>
+        <v>1740</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -689,37 +695,37 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="F6">
-        <v>65148</v>
+        <v>55594</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6">
-        <v>1995</v>
+        <v>1493</v>
       </c>
       <c r="K6">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M6">
-        <v>15.06</v>
+        <v>18.49</v>
       </c>
       <c r="N6">
-        <v>12.75</v>
+        <v>8.48</v>
       </c>
     </row>
   </sheetData>

--- a/templates/recommended_cars.xlsx
+++ b/templates/recommended_cars.xlsx
@@ -507,32 +507,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4162</v>
+        <v>4246</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyundai EON Era Plus</t>
+          <t>Mahindra Scorpio SLE BSIV</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Mahindra</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2012</v>
       </c>
       <c r="F2" t="n">
-        <v>60500</v>
+        <v>77000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -542,53 +542,53 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>First</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>814</v>
+        <v>2179</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2</v>
+        <v>120</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>21.1</v>
+        <v>12.05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.6</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5003</v>
+        <v>2854</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyundai i20 1.2 Magna</t>
+          <t>Mahindra Scorpio VLX 4WD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Mahindra</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Bangalore</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="F3" t="n">
-        <v>57500</v>
+        <v>81000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -598,53 +598,53 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>First</t>
+          <t>Third</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1197</v>
+        <v>2179</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>18.5</v>
+        <v>12.05</v>
       </c>
       <c r="N3" t="n">
-        <v>2.75</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>614</v>
+        <v>2946</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyundai Xcent 1.2 Kappa S</t>
+          <t>Mahindra XUV500 W8 2WD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Mahindra</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F4" t="n">
-        <v>7400</v>
+        <v>59711</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -658,49 +658,49 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1197</v>
+        <v>2179</v>
       </c>
       <c r="K4" t="n">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>19.1</v>
+        <v>15.1</v>
       </c>
       <c r="N4" t="n">
-        <v>4.35</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3866</v>
+        <v>2108</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyundai i20 Sportz 1.2</t>
+          <t>Mahindra XUV500 W8 2WD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Mahindra</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kolkata</t>
+          <t>Coimbatore</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F5" t="n">
-        <v>35000</v>
+        <v>41840</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -714,49 +714,49 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1197</v>
+        <v>2179</v>
       </c>
       <c r="K5" t="n">
-        <v>81.83</v>
+        <v>140</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>18.6</v>
+        <v>15.1</v>
       </c>
       <c r="N5" t="n">
-        <v>4.43</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2302</v>
+        <v>4168</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hyundai Creta 1.6 SX Plus Dual Tone Petrol</t>
+          <t>Mahindra Scorpio SLE BSIV</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Mahindra</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Coimbatore</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="F6" t="n">
-        <v>36458</v>
+        <v>85000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1591</v>
+        <v>2179</v>
       </c>
       <c r="K6" t="n">
-        <v>121.3</v>
+        <v>120</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>15.29</v>
+        <v>12.05</v>
       </c>
       <c r="N6" t="n">
-        <v>12.34</v>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>
